--- a/cansatBrain planning.xlsx
+++ b/cansatBrain planning.xlsx
@@ -5,237 +5,374 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="power estimation" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="battery considerations" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sensors" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Telemetry reqs" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="voltage regs" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="component symbols" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>min volt</t>
-  </si>
-  <si>
-    <t>max volt</t>
-  </si>
-  <si>
-    <t>avg cur</t>
-  </si>
-  <si>
-    <t>sleep cur</t>
-  </si>
-  <si>
-    <t>schematic</t>
-  </si>
-  <si>
-    <t>footprint</t>
-  </si>
-  <si>
-    <t>teensy 3.1</t>
-  </si>
-  <si>
-    <t>teensy LC</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>MPU6050</t>
-  </si>
-  <si>
-    <t>MPU9250</t>
-  </si>
-  <si>
-    <t>&lt;5</t>
-  </si>
-  <si>
-    <t>tmp102</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
-    <t>MPL3115A2</t>
-  </si>
-  <si>
-    <t>&lt;2</t>
-  </si>
-  <si>
-    <t>LS20031</t>
-  </si>
-  <si>
-    <t>&gt;13</t>
-  </si>
-  <si>
-    <t>SD card</t>
-  </si>
-  <si>
-    <t>&lt;25</t>
-  </si>
-  <si>
-    <t>:(</t>
-  </si>
-  <si>
-    <t>25 when writing</t>
-  </si>
-  <si>
-    <t>xbee</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>50 when transmitting</t>
-  </si>
-  <si>
-    <t>max cur</t>
-  </si>
-  <si>
-    <t>&gt;100 mA</t>
-  </si>
-  <si>
-    <t>~4.6 m/s^2 going up</t>
-  </si>
-  <si>
-    <t>sensors</t>
-  </si>
-  <si>
-    <t>8 mA</t>
-  </si>
-  <si>
-    <t>custom driver for micro servo to actuate release</t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>chem</t>
-  </si>
-  <si>
-    <t>voltage</t>
-  </si>
-  <si>
-    <t>cutoff (v)</t>
-  </si>
-  <si>
-    <t>mAh</t>
-  </si>
-  <si>
-    <t>contin mA</t>
-  </si>
-  <si>
-    <t>peak mA</t>
-  </si>
-  <si>
-    <t>weight (g)</t>
-  </si>
-  <si>
-    <t>15 min on pad</t>
-  </si>
-  <si>
-    <t>lir2450</t>
-  </si>
-  <si>
-    <t>li ion</t>
-  </si>
-  <si>
-    <t>3 in air</t>
-  </si>
-  <si>
-    <t>cr2</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>15 on ground</t>
-  </si>
-  <si>
-    <t>flashlights use this at max ~270 mA</t>
-  </si>
-  <si>
-    <t>min 50 mAh capacity</t>
-  </si>
-  <si>
-    <t>powerstream lir2450</t>
-  </si>
-  <si>
-    <t> CR11108</t>
-  </si>
-  <si>
-    <t>I like this one, holder BC1/3N</t>
-  </si>
-  <si>
-    <t>Zn/O2</t>
-  </si>
-  <si>
-    <t>Not enough power</t>
-  </si>
-  <si>
-    <t>Single cell Li ion or lithium</t>
-  </si>
-  <si>
-    <t>Vin 4.5 - 2</t>
-  </si>
-  <si>
-    <t>I like this voltage regulator</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/product/tps63031</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>No RTC. Never lose power</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>bat volt</t>
-  </si>
-  <si>
-    <t>Resistor divider and A/D</t>
-  </si>
-  <si>
-    <t>in temp</t>
-  </si>
-  <si>
-    <t>out temp</t>
-  </si>
-  <si>
-    <t>telemetry</t>
-  </si>
-  <si>
-    <t>lat long</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t>acceleration</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Making it small will make light weight easier</t>
-  </si>
-  <si>
-    <t>Low weight</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+  <si>
+    <t xml:space="preserve">device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schematic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teensy 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teensy LC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU6050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPU9250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPL3115A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS20031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 when writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xbee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 when transmitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPXV7002DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arducam mini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;100 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~4.6 m/s^2 going up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutoff (v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contin mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 min on pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lir2450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 in air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using 2 in series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like this one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 on ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flashlights use this at max ~270 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min 50 mAh capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powerstream lir2450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CR11108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like this one, holder BC1/3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn/O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not enough power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single cell Li ion or lithium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vin 4.5 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like this voltage regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ti.com/product/tps63031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3 V buck-boost regulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No RTC. Never lose power instead with extra batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bat volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor divider and A/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparkfun tmp102 breakout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actually not needed this year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telemetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceleration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arducam OV2640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can jpeg compress</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fixed focus doesn’t matter at distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arducam MT9D111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also jpeg compress and has an autofocus lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses OV2640 sensor and has additional support circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this one, better support from arducam libraries, 3.3 Volt is enough to power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pitot tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.aliexpress.com/snapshot/7302330078.html?orderId=72703379968487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making it small will make light weight easier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mission time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packet count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps sat num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gps speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS63031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS63061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pin header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 pin header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 pin header</t>
   </si>
 </sst>
 </file>
@@ -243,7 +380,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -322,12 +459,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,18 +550,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5051020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,10 +585,13 @@
       <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.71</v>
@@ -459,7 +602,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1.71</v>
@@ -467,13 +610,19 @@
       <c r="C3" s="0" t="n">
         <v>3.6</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.375</v>
@@ -487,7 +636,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.4</v>
@@ -496,15 +645,18 @@
         <v>3.6</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.4</v>
@@ -513,15 +665,15 @@
         <v>3.6</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.95</v>
@@ -530,18 +682,21 @@
         <v>3.6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.002</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -550,18 +705,21 @@
         <v>4.3</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2.7</v>
@@ -570,21 +728,24 @@
         <v>3.6</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2.8</v>
@@ -593,40 +754,60 @@
         <v>3.4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="A12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
+      <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -645,55 +826,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1785714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3.6</v>
@@ -714,15 +897,15 @@
         <v>5.2</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -742,8 +925,14 @@
       <c r="H3" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="I3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +940,7 @@
         <v>10180</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3.6</v>
@@ -772,18 +961,18 @@
         <v>3.46</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>3.7</v>
@@ -806,10 +995,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -830,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1.4</v>
@@ -856,10 +1045,10 @@
         <v>0.31</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,7 +1056,7 @@
         <v>675</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1.4</v>
@@ -885,20 +1074,25 @@
         <v>1.82</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O11" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O12" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O13" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -917,105 +1111,465 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.2397959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.0714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>72</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/cansatBrain planning.xlsx
+++ b/cansatBrain planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t xml:space="preserve">device</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">TPS63061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placed</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
@@ -558,9 +561,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,12 +840,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1785714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,11 +1129,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.2397959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1285,9 +1295,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1449,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,29 +1501,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1537,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1548,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1559,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,7 +1570,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,7 +1581,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1592,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1603,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/cansatBrain planning.xlsx
+++ b/cansatBrain planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="power estimation" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
   <si>
     <t xml:space="preserve">device</t>
   </si>
@@ -363,6 +363,12 @@
     <t xml:space="preserve">placed</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapeda</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
@@ -370,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM3CS-SF</t>
   </si>
   <si>
     <t xml:space="preserve">3 pin header</t>
@@ -561,12 +570,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,16 +849,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,11 +1138,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="78.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1295,9 +1304,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,16 +1510,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
@@ -1548,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
@@ -1559,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
@@ -1570,10 +1579,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>10</v>
@@ -1603,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
